--- a/data/Season Data.xlsx
+++ b/data/Season Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>First Name</t>
   </si>
@@ -82,10 +82,10 @@
     <t>Birdo</t>
   </si>
   <si>
-    <t>Black Mii Female</t>
-  </si>
-  <si>
-    <t>Black Mii Male</t>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t>Snape</t>
   </si>
   <si>
     <t>Black Shy Guy</t>
@@ -100,10 +100,10 @@
     <t>Blue Kritter</t>
   </si>
   <si>
-    <t>Blue Mii Female</t>
-  </si>
-  <si>
-    <t>Blue Mii Male</t>
+    <t>Helly R</t>
+  </si>
+  <si>
+    <t>Minion</t>
   </si>
   <si>
     <t>Blue Shy Guy</t>
@@ -130,10 +130,10 @@
     <t>Brown Kritter</t>
   </si>
   <si>
-    <t>Brown Mii Female</t>
-  </si>
-  <si>
-    <t>Brown Mii Male</t>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Ice Cube</t>
   </si>
   <si>
     <t>Daisy</t>
@@ -169,10 +169,10 @@
     <t>Green Magikoopa</t>
   </si>
   <si>
-    <t>Green Mii Female</t>
-  </si>
-  <si>
-    <t>Green Mii Male</t>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>Unc</t>
   </si>
   <si>
     <t>Green Noki</t>
@@ -199,10 +199,10 @@
     <t>Kritter</t>
   </si>
   <si>
-    <t>Light Blue Mii Male</t>
-  </si>
-  <si>
-    <t>Light Green Mii Male</t>
+    <t>Frozone</t>
+  </si>
+  <si>
+    <t>Taylor</t>
   </si>
   <si>
     <t>Luigi</t>
@@ -214,7 +214,7 @@
     <t>Mario</t>
   </si>
   <si>
-    <t>Orange Mii Male</t>
+    <t>KevinG</t>
   </si>
   <si>
     <t>Koopa Paratroopa</t>
@@ -232,19 +232,19 @@
     <t>Pianta</t>
   </si>
   <si>
-    <t>Pink Mii Female</t>
-  </si>
-  <si>
-    <t>Pink Mii Male</t>
+    <t>Miss Hot</t>
+  </si>
+  <si>
+    <t>Dwayne Wade</t>
   </si>
   <si>
     <t>Pink Yoshi</t>
   </si>
   <si>
-    <t>Purple Mii Female</t>
-  </si>
-  <si>
-    <t>Purple Mii Male</t>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>John 2.0</t>
   </si>
   <si>
     <t>Purple Toad</t>
@@ -256,10 +256,10 @@
     <t>Red Magikoopa</t>
   </si>
   <si>
-    <t>Red Mii Female</t>
-  </si>
-  <si>
-    <t>Red Mii Male</t>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Incredible</t>
   </si>
   <si>
     <t>Red Noki</t>
@@ -298,10 +298,10 @@
     <t>Wario</t>
   </si>
   <si>
-    <t>White Mii Female</t>
-  </si>
-  <si>
-    <t>White Mii Male</t>
+    <t>Miss Casey</t>
+  </si>
+  <si>
+    <t>Semenlad</t>
   </si>
   <si>
     <t>Wiggler</t>
@@ -310,7 +310,7 @@
     <t>Yellow Magikoopa</t>
   </si>
   <si>
-    <t>Yellow Mii Male</t>
+    <t>Borat</t>
   </si>
   <si>
     <t>Yellow Pianta</t>
@@ -323,6 +323,54 @@
   </si>
   <si>
     <t>Yoshi</t>
+  </si>
+  <si>
+    <t>Caillou</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Mrs.Claus</t>
+  </si>
+  <si>
+    <t>Lizzy</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Lilo</t>
+  </si>
+  <si>
+    <t>MJ heehee</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Capt Jack</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>John K</t>
+  </si>
+  <si>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>Whoppie</t>
+  </si>
+  <si>
+    <t>Mikasa</t>
   </si>
   <si>
     <t>Zorro (mii)</t>
@@ -446,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,6 +512,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -777,31 +834,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1601,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1701,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -5202,7 +5259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="5">
@@ -5248,6 +5305,856 @@
         <v>0</v>
       </c>
       <c r="P89" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0</v>
+      </c>
+      <c r="P90" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>2</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0</v>
+      </c>
+      <c r="P91" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="5">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>2</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0</v>
+      </c>
+      <c r="P92" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="5">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5">
+        <v>2</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0</v>
+      </c>
+      <c r="P93" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5">
+        <v>2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0</v>
+      </c>
+      <c r="P94" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
+      <c r="M95" s="5">
+        <v>0</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0</v>
+      </c>
+      <c r="P95" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>2</v>
+      </c>
+      <c r="H96" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0</v>
+      </c>
+      <c r="P96" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <v>0</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0</v>
+      </c>
+      <c r="G98" s="5">
+        <v>2</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <v>0</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2</v>
+      </c>
+      <c r="C99" s="5">
+        <v>7</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>2</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="8">
+        <v>2</v>
+      </c>
+      <c r="C100" s="8">
+        <v>7</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I100" s="8">
+        <v>0</v>
+      </c>
+      <c r="J100" s="8">
+        <v>0</v>
+      </c>
+      <c r="K100" s="8">
+        <v>0</v>
+      </c>
+      <c r="L100" s="8">
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <v>0</v>
+      </c>
+      <c r="N100" s="8">
+        <v>0</v>
+      </c>
+      <c r="O100" s="8">
+        <v>0</v>
+      </c>
+      <c r="P100" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2</v>
+      </c>
+      <c r="C101" s="8">
+        <v>7</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>2</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
+        <v>0</v>
+      </c>
+      <c r="K101" s="8">
+        <v>0</v>
+      </c>
+      <c r="L101" s="8">
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
+        <v>0</v>
+      </c>
+      <c r="N101" s="8">
+        <v>0</v>
+      </c>
+      <c r="O101" s="8">
+        <v>0</v>
+      </c>
+      <c r="P101" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="8">
+        <v>2</v>
+      </c>
+      <c r="C102" s="8">
+        <v>7</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>2</v>
+      </c>
+      <c r="H102" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I102" s="8">
+        <v>0</v>
+      </c>
+      <c r="J102" s="8">
+        <v>0</v>
+      </c>
+      <c r="K102" s="8">
+        <v>0</v>
+      </c>
+      <c r="L102" s="8">
+        <v>0</v>
+      </c>
+      <c r="M102" s="8">
+        <v>0</v>
+      </c>
+      <c r="N102" s="8">
+        <v>0</v>
+      </c>
+      <c r="O102" s="8">
+        <v>0</v>
+      </c>
+      <c r="P102" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="8">
+        <v>2</v>
+      </c>
+      <c r="C103" s="8">
+        <v>7</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0</v>
+      </c>
+      <c r="K103" s="8">
+        <v>0</v>
+      </c>
+      <c r="L103" s="8">
+        <v>0</v>
+      </c>
+      <c r="M103" s="8">
+        <v>0</v>
+      </c>
+      <c r="N103" s="8">
+        <v>0</v>
+      </c>
+      <c r="O103" s="8">
+        <v>0</v>
+      </c>
+      <c r="P103" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="8">
+        <v>2</v>
+      </c>
+      <c r="C104" s="8">
+        <v>7</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <v>2</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I104" s="8">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <v>0</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0</v>
+      </c>
+      <c r="P104" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="8">
+        <v>2</v>
+      </c>
+      <c r="C105" s="8">
+        <v>7</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <v>2</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0</v>
+      </c>
+      <c r="J105" s="8">
+        <v>0</v>
+      </c>
+      <c r="K105" s="8">
+        <v>0</v>
+      </c>
+      <c r="L105" s="8">
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
+        <v>0</v>
+      </c>
+      <c r="N105" s="8">
+        <v>0</v>
+      </c>
+      <c r="O105" s="8">
+        <v>0</v>
+      </c>
+      <c r="P105" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>2</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0.286</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="5">
+        <v>0</v>
+      </c>
+      <c r="L106" s="5">
+        <v>0</v>
+      </c>
+      <c r="M106" s="5">
+        <v>0</v>
+      </c>
+      <c r="N106" s="5">
+        <v>0</v>
+      </c>
+      <c r="O106" s="5">
+        <v>0</v>
+      </c>
+      <c r="P106" s="5">
         <v>17</v>
       </c>
     </row>

--- a/data/Season Data.xlsx
+++ b/data/Season Data.xlsx
@@ -343,7 +343,7 @@
     <t>Lilo</t>
   </si>
   <si>
-    <t>MJ heehee</t>
+    <t>MJ Heehee</t>
   </si>
   <si>
     <t>Angelina</t>
@@ -381,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +406,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -437,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -490,6 +496,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -514,13 +527,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -858,7 +871,7 @@
     <col min="16" max="16" style="11" width="6.576428571428571" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -958,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1508,7 +1521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
